--- a/HW6/times.xlsx
+++ b/HW6/times.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Radin\Documents\MCP\HW6\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5738ED89-78DD-4F46-9E9D-3962C21302AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F2B3864-3402-4D6E-9303-52A616CE889F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1920" yWindow="2436" windowWidth="15528" windowHeight="12204" xr2:uid="{3C9CAB14-929C-4BED-A531-850781074EFE}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="8">
   <si>
     <t>serial</t>
   </si>
@@ -46,6 +46,9 @@
   </si>
   <si>
     <t>-</t>
+  </si>
+  <si>
+    <t>5\2</t>
   </si>
 </sst>
 </file>
@@ -447,10 +450,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D4A5E4A-3F2B-4867-85C9-E9CCC0B3D686}">
-  <dimension ref="A1:H24"/>
+  <dimension ref="A1:I24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G23" sqref="G23"/>
+      <selection activeCell="I25" sqref="I25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.69921875" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -460,7 +463,7 @@
     <col min="3" max="16384" width="11.69921875" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C1" s="3" t="s">
         <v>0</v>
       </c>
@@ -479,8 +482,11 @@
       <c r="H1" s="3">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I1" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3">
         <v>22</v>
       </c>
@@ -505,8 +511,11 @@
       <c r="H2" s="1">
         <v>3.06</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I2" s="3">
+        <v>3.05</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="3" t="s">
         <v>2</v>
       </c>
@@ -528,8 +537,11 @@
       <c r="H3" s="1">
         <v>0.89</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I3" s="3">
+        <v>0.86</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B4" s="3" t="s">
         <v>3</v>
       </c>
@@ -544,7 +556,7 @@
         <v>1.2335766423357664</v>
       </c>
       <c r="F4" s="3">
-        <f t="shared" ref="F4:H4" si="0">E3/F3</f>
+        <f t="shared" ref="F4:I4" si="0">E3/F3</f>
         <v>1.2568807339449541</v>
       </c>
       <c r="G4" s="3">
@@ -555,8 +567,12 @@
         <f t="shared" si="0"/>
         <v>1.1910112359550562</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I4" s="3">
+        <f>G3/I3</f>
+        <v>1.2325581395348839</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B5" s="3" t="s">
         <v>5</v>
       </c>
@@ -583,8 +599,12 @@
         <f>C2/H3</f>
         <v>1.0337078651685394</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I5" s="3">
+        <f>C2/I3</f>
+        <v>1.0697674418604652</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B6" s="3" t="s">
         <v>4</v>
       </c>
@@ -610,8 +630,12 @@
         <f>D3/H3</f>
         <v>1.898876404494382</v>
       </c>
-    </row>
-    <row r="12" spans="1:8" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I6" s="3">
+        <f>D3/I3</f>
+        <v>1.9651162790697674</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="3">
         <v>26</v>
       </c>
@@ -636,8 +660,11 @@
       <c r="H12" s="2">
         <v>26.79</v>
       </c>
-    </row>
-    <row r="13" spans="1:8" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I12" s="3">
+        <v>26.27</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B13" s="3" t="s">
         <v>2</v>
       </c>
@@ -659,8 +686,11 @@
       <c r="H13" s="2">
         <v>4.22</v>
       </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I13" s="3">
+        <v>4.12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B14" s="3" t="s">
         <v>3</v>
       </c>
@@ -671,7 +701,7 @@
         <v>6</v>
       </c>
       <c r="E14" s="3">
-        <f t="shared" ref="E14:H14" si="1">D13/E13</f>
+        <f t="shared" ref="E14:I14" si="1">D13/E13</f>
         <v>1.4297597042513863</v>
       </c>
       <c r="F14" s="3">
@@ -686,8 +716,12 @@
         <f t="shared" si="1"/>
         <v>1.3412322274881519</v>
       </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I14" s="3">
+        <f>G13/I13</f>
+        <v>1.3737864077669903</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B15" s="3" t="s">
         <v>5</v>
       </c>
@@ -714,8 +748,12 @@
         <f>C12/H12</f>
         <v>0.53116834639790966</v>
       </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I15" s="3">
+        <f>C12/I12</f>
+        <v>0.5416825275980206</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B16" s="3" t="s">
         <v>4</v>
       </c>
@@ -741,8 +779,12 @@
         <f>D13/H13</f>
         <v>3.6658767772511851</v>
       </c>
-    </row>
-    <row r="20" spans="1:8" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I16" s="3">
+        <f>D13/I13</f>
+        <v>3.7548543689320391</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="3">
         <v>30</v>
       </c>
@@ -767,8 +809,11 @@
       <c r="H20" s="2">
         <v>413.1</v>
       </c>
-    </row>
-    <row r="21" spans="1:8" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I20" s="3">
+        <v>418.76</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B21" s="3" t="s">
         <v>2</v>
       </c>
@@ -790,8 +835,11 @@
       <c r="H21" s="2">
         <v>67.13</v>
       </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I21" s="3">
+        <v>74.97</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B22" s="3" t="s">
         <v>3</v>
       </c>
@@ -817,8 +865,12 @@
         <f>G21/H21</f>
         <v>1.2392373007597199</v>
       </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I22" s="3">
+        <f>G21/I21</f>
+        <v>1.1096438575430172</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B23" s="3" t="s">
         <v>5</v>
       </c>
@@ -845,8 +897,12 @@
         <f>C20/H20</f>
         <v>0.48547567175018158</v>
       </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I23" s="3">
+        <f>C20/I20</f>
+        <v>0.4789139363836088</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B24" s="3" t="s">
         <v>4</v>
       </c>
@@ -871,6 +927,10 @@
       <c r="H24" s="3">
         <f>D21/H21</f>
         <v>3.3762848204975424</v>
+      </c>
+      <c r="I24" s="3">
+        <f>D21/I21</f>
+        <v>3.0232092837134856</v>
       </c>
     </row>
   </sheetData>
